--- a/Státní závěrečné zkoušky/Otázky/Gantt.xlsx
+++ b/Státní závěrečné zkoušky/Otázky/Gantt.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/Bakalářská práce/Státní závěrečné zkoušky/Otázky/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{73A8C43E-3182-8447-A6C7-CC7D48974769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4964CFA6-E897-9F4D-99D6-C3ADCEC0F53F}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{73A8C43E-3182-8447-A6C7-CC7D48974769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{739641E2-B384-C941-8876-75D552BACAB8}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{196274B7-E9B6-054A-946B-71D9237123A5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" activeTab="1" xr2:uid="{196274B7-E9B6-054A-946B-71D9237123A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="display_week">Sheet2!$D$4</definedName>
+    <definedName name="M">Sheet2!$G$7</definedName>
+    <definedName name="project_start">Sheet2!$D$3</definedName>
+    <definedName name="taks_start">Sheet2!$D1</definedName>
+    <definedName name="task_end">Sheet2!$E1</definedName>
+    <definedName name="task_progress">Sheet2!$C1</definedName>
+    <definedName name="task_start">Sheet2!$D1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -157,12 +167,49 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>Stav</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>ASSIGNED TO</t>
+  </si>
+  <si>
+    <t>PROGRESS</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>Project Start:</t>
+  </si>
+  <si>
+    <t>Display Week:</t>
+  </si>
+  <si>
+    <t>CEVRO INSTITUT</t>
+  </si>
+  <si>
+    <t>Dominik Bálint</t>
+  </si>
+  <si>
+    <t>Právo v Obchodních vztazích</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ d/mmm/yyyy"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,19 +223,135 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -197,14 +360,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -215,6 +472,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="$D$4" horiz="1" max="100" page="0" val="2"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>812800</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>25400</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Scroll Bar 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475068D2-3FCF-C848-8C20-861F3B0DA572}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -527,7 +843,7 @@
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,8 +856,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -554,8 +873,11 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -569,7 +891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -583,7 +905,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -597,7 +919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -611,7 +933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -619,13 +941,17 @@
         <v>44032</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -633,13 +959,16 @@
         <v>44033</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="21">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -647,13 +976,16 @@
         <v>44034</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="21">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -661,13 +993,13 @@
         <v>44035</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -675,13 +1007,13 @@
         <v>44036</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -689,13 +1021,13 @@
         <v>44037</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -703,13 +1035,13 @@
         <v>44038</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -717,13 +1049,13 @@
         <v>44039</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -731,13 +1063,13 @@
         <v>44040</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -745,7 +1077,7 @@
         <v>44041</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -759,7 +1091,7 @@
         <v>44042</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -773,7 +1105,7 @@
         <v>44043</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -787,7 +1119,7 @@
         <v>44044</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -801,7 +1133,7 @@
         <v>44045</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -815,7 +1147,7 @@
         <v>44046</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -829,7 +1161,7 @@
         <v>44047</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -843,7 +1175,7 @@
         <v>44048</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -857,7 +1189,7 @@
         <v>44049</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -871,7 +1203,7 @@
         <v>44050</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -885,7 +1217,7 @@
         <v>44051</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -899,7 +1231,7 @@
         <v>44052</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -913,7 +1245,7 @@
         <v>44053</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -927,7 +1259,7 @@
         <v>44054</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -941,7 +1273,7 @@
         <v>44055</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -955,7 +1287,7 @@
         <v>44056</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -969,7 +1301,7 @@
         <v>44057</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -983,7 +1315,7 @@
         <v>44058</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -997,7 +1329,7 @@
         <v>44059</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1011,7 +1343,7 @@
         <v>44060</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1025,14 +1357,4010 @@
         <v>44061</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA571D2-B30F-6044-AFAE-E5DB9529F9D8}">
+  <dimension ref="A1:BX41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="2.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.1640625" style="3" customWidth="1"/>
+    <col min="14" max="19" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1640625" style="3" customWidth="1"/>
+    <col min="21" max="26" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.1640625" style="3" customWidth="1"/>
+    <col min="28" max="33" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.1640625" style="3" customWidth="1"/>
+    <col min="35" max="40" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.1640625" style="3" customWidth="1"/>
+    <col min="42" max="47" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="3.1640625" style="3" customWidth="1"/>
+    <col min="49" max="54" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="3.1640625" style="3" customWidth="1"/>
+    <col min="56" max="61" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="3.1640625" style="3" customWidth="1"/>
+    <col min="63" max="68" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="3.1640625" style="3" customWidth="1"/>
+    <col min="70" max="75" width="3.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="3.1640625" style="3" customWidth="1"/>
+    <col min="77" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:76" ht="24">
+      <c r="A1" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:76">
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="G4" s="22">
+        <f>G5</f>
+        <v>44025</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="22">
+        <f t="shared" ref="N4" si="0">N5</f>
+        <v>44032</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="22">
+        <f t="shared" ref="U4" si="1">U5</f>
+        <v>44039</v>
+      </c>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="22">
+        <f t="shared" ref="AB4" si="2">AB5</f>
+        <v>44046</v>
+      </c>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="22">
+        <f t="shared" ref="AI4" si="3">AI5</f>
+        <v>44053</v>
+      </c>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="22">
+        <f>AP5</f>
+        <v>44060</v>
+      </c>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="22">
+        <f t="shared" ref="AW4" si="4">AW5</f>
+        <v>44067</v>
+      </c>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="22">
+        <f t="shared" ref="BD4" si="5">BD5</f>
+        <v>44074</v>
+      </c>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="24"/>
+      <c r="BK4" s="22">
+        <f t="shared" ref="BK4" si="6">BK5</f>
+        <v>44081</v>
+      </c>
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="23"/>
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="23"/>
+      <c r="BP4" s="23"/>
+      <c r="BQ4" s="24"/>
+      <c r="BR4" s="22">
+        <f t="shared" ref="BR4" si="7">BR5</f>
+        <v>44088</v>
+      </c>
+      <c r="BS4" s="23"/>
+      <c r="BT4" s="23"/>
+      <c r="BU4" s="23"/>
+      <c r="BV4" s="23"/>
+      <c r="BW4" s="23"/>
+      <c r="BX4" s="24"/>
+    </row>
+    <row r="5" spans="1:76">
+      <c r="G5" s="10">
+        <f>D3-WEEKDAY(project_start,3)+(display_week-1)*7</f>
+        <v>44025</v>
+      </c>
+      <c r="H5" s="11">
+        <f>G5+1</f>
+        <v>44026</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" ref="I5:BT5" si="8">H5+1</f>
+        <v>44027</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="8"/>
+        <v>44028</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" si="8"/>
+        <v>44029</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="8"/>
+        <v>44030</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="8"/>
+        <v>44031</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="8"/>
+        <v>44032</v>
+      </c>
+      <c r="O5" s="11">
+        <f t="shared" si="8"/>
+        <v>44033</v>
+      </c>
+      <c r="P5" s="11">
+        <f t="shared" si="8"/>
+        <v>44034</v>
+      </c>
+      <c r="Q5" s="11">
+        <f t="shared" si="8"/>
+        <v>44035</v>
+      </c>
+      <c r="R5" s="11">
+        <f t="shared" si="8"/>
+        <v>44036</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" si="8"/>
+        <v>44037</v>
+      </c>
+      <c r="T5" s="12">
+        <f t="shared" si="8"/>
+        <v>44038</v>
+      </c>
+      <c r="U5" s="10">
+        <f t="shared" si="8"/>
+        <v>44039</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="8"/>
+        <v>44040</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="8"/>
+        <v>44041</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="8"/>
+        <v>44042</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="8"/>
+        <v>44043</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="8"/>
+        <v>44044</v>
+      </c>
+      <c r="AA5" s="12">
+        <f t="shared" si="8"/>
+        <v>44045</v>
+      </c>
+      <c r="AB5" s="10">
+        <f t="shared" si="8"/>
+        <v>44046</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="8"/>
+        <v>44047</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="8"/>
+        <v>44048</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="8"/>
+        <v>44049</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="8"/>
+        <v>44050</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="8"/>
+        <v>44051</v>
+      </c>
+      <c r="AH5" s="12">
+        <f t="shared" si="8"/>
+        <v>44052</v>
+      </c>
+      <c r="AI5" s="10">
+        <f t="shared" si="8"/>
+        <v>44053</v>
+      </c>
+      <c r="AJ5" s="11">
+        <f t="shared" si="8"/>
+        <v>44054</v>
+      </c>
+      <c r="AK5" s="11">
+        <f t="shared" si="8"/>
+        <v>44055</v>
+      </c>
+      <c r="AL5" s="11">
+        <f t="shared" si="8"/>
+        <v>44056</v>
+      </c>
+      <c r="AM5" s="11">
+        <f t="shared" si="8"/>
+        <v>44057</v>
+      </c>
+      <c r="AN5" s="11">
+        <f t="shared" si="8"/>
+        <v>44058</v>
+      </c>
+      <c r="AO5" s="12">
+        <f t="shared" si="8"/>
+        <v>44059</v>
+      </c>
+      <c r="AP5" s="10">
+        <f t="shared" si="8"/>
+        <v>44060</v>
+      </c>
+      <c r="AQ5" s="11">
+        <f t="shared" si="8"/>
+        <v>44061</v>
+      </c>
+      <c r="AR5" s="11">
+        <f t="shared" si="8"/>
+        <v>44062</v>
+      </c>
+      <c r="AS5" s="11">
+        <f t="shared" si="8"/>
+        <v>44063</v>
+      </c>
+      <c r="AT5" s="11">
+        <f t="shared" si="8"/>
+        <v>44064</v>
+      </c>
+      <c r="AU5" s="11">
+        <f t="shared" si="8"/>
+        <v>44065</v>
+      </c>
+      <c r="AV5" s="12">
+        <f t="shared" si="8"/>
+        <v>44066</v>
+      </c>
+      <c r="AW5" s="10">
+        <f t="shared" si="8"/>
+        <v>44067</v>
+      </c>
+      <c r="AX5" s="11">
+        <f t="shared" si="8"/>
+        <v>44068</v>
+      </c>
+      <c r="AY5" s="11">
+        <f t="shared" si="8"/>
+        <v>44069</v>
+      </c>
+      <c r="AZ5" s="11">
+        <f t="shared" si="8"/>
+        <v>44070</v>
+      </c>
+      <c r="BA5" s="11">
+        <f t="shared" si="8"/>
+        <v>44071</v>
+      </c>
+      <c r="BB5" s="11">
+        <f t="shared" si="8"/>
+        <v>44072</v>
+      </c>
+      <c r="BC5" s="12">
+        <f t="shared" si="8"/>
+        <v>44073</v>
+      </c>
+      <c r="BD5" s="10">
+        <f t="shared" si="8"/>
+        <v>44074</v>
+      </c>
+      <c r="BE5" s="11">
+        <f t="shared" si="8"/>
+        <v>44075</v>
+      </c>
+      <c r="BF5" s="11">
+        <f t="shared" si="8"/>
+        <v>44076</v>
+      </c>
+      <c r="BG5" s="11">
+        <f t="shared" si="8"/>
+        <v>44077</v>
+      </c>
+      <c r="BH5" s="11">
+        <f t="shared" si="8"/>
+        <v>44078</v>
+      </c>
+      <c r="BI5" s="11">
+        <f t="shared" si="8"/>
+        <v>44079</v>
+      </c>
+      <c r="BJ5" s="12">
+        <f t="shared" si="8"/>
+        <v>44080</v>
+      </c>
+      <c r="BK5" s="10">
+        <f t="shared" si="8"/>
+        <v>44081</v>
+      </c>
+      <c r="BL5" s="11">
+        <f t="shared" si="8"/>
+        <v>44082</v>
+      </c>
+      <c r="BM5" s="11">
+        <f t="shared" si="8"/>
+        <v>44083</v>
+      </c>
+      <c r="BN5" s="11">
+        <f t="shared" si="8"/>
+        <v>44084</v>
+      </c>
+      <c r="BO5" s="11">
+        <f t="shared" si="8"/>
+        <v>44085</v>
+      </c>
+      <c r="BP5" s="11">
+        <f t="shared" si="8"/>
+        <v>44086</v>
+      </c>
+      <c r="BQ5" s="12">
+        <f t="shared" si="8"/>
+        <v>44087</v>
+      </c>
+      <c r="BR5" s="10">
+        <f t="shared" si="8"/>
+        <v>44088</v>
+      </c>
+      <c r="BS5" s="11">
+        <f t="shared" si="8"/>
+        <v>44089</v>
+      </c>
+      <c r="BT5" s="11">
+        <f t="shared" si="8"/>
+        <v>44090</v>
+      </c>
+      <c r="BU5" s="11">
+        <f t="shared" ref="BU5:BX5" si="9">BT5+1</f>
+        <v>44091</v>
+      </c>
+      <c r="BV5" s="11">
+        <f t="shared" si="9"/>
+        <v>44092</v>
+      </c>
+      <c r="BW5" s="11">
+        <f t="shared" si="9"/>
+        <v>44093</v>
+      </c>
+      <c r="BX5" s="12">
+        <f t="shared" si="9"/>
+        <v>44094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:76" ht="23" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="str">
+        <f>LEFT(TEXT(G5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" ref="H6:N6" si="10">LEFT(TEXT(H5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>W</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>T</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>M</v>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f t="shared" ref="O6" si="11">LEFT(TEXT(O5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f t="shared" ref="P6" si="12">LEFT(TEXT(P5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="Q6" s="5" t="str">
+        <f t="shared" ref="Q6" si="13">LEFT(TEXT(Q5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="R6" s="5" t="str">
+        <f t="shared" ref="R6" si="14">LEFT(TEXT(R5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="S6" s="5" t="str">
+        <f t="shared" ref="S6" si="15">LEFT(TEXT(S5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="T6" s="5" t="str">
+        <f t="shared" ref="T6:U6" si="16">LEFT(TEXT(T5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="U6" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v>M</v>
+      </c>
+      <c r="V6" s="5" t="str">
+        <f t="shared" ref="V6" si="17">LEFT(TEXT(V5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="W6" s="5" t="str">
+        <f t="shared" ref="W6" si="18">LEFT(TEXT(W5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="X6" s="5" t="str">
+        <f t="shared" ref="X6" si="19">LEFT(TEXT(X5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="Y6" s="5" t="str">
+        <f t="shared" ref="Y6" si="20">LEFT(TEXT(Y5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="Z6" s="5" t="str">
+        <f t="shared" ref="Z6" si="21">LEFT(TEXT(Z5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AA6" s="5" t="str">
+        <f t="shared" ref="AA6:AB6" si="22">LEFT(TEXT(AA5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AB6" s="5" t="str">
+        <f t="shared" si="22"/>
+        <v>M</v>
+      </c>
+      <c r="AC6" s="5" t="str">
+        <f t="shared" ref="AC6" si="23">LEFT(TEXT(AC5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="AD6" s="5" t="str">
+        <f t="shared" ref="AD6" si="24">LEFT(TEXT(AD5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="AE6" s="5" t="str">
+        <f t="shared" ref="AE6" si="25">LEFT(TEXT(AE5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="AF6" s="5" t="str">
+        <f t="shared" ref="AF6" si="26">LEFT(TEXT(AF5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="AG6" s="5" t="str">
+        <f t="shared" ref="AG6" si="27">LEFT(TEXT(AG5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AH6" s="5" t="str">
+        <f t="shared" ref="AH6:AI6" si="28">LEFT(TEXT(AH5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AI6" s="5" t="str">
+        <f t="shared" si="28"/>
+        <v>M</v>
+      </c>
+      <c r="AJ6" s="5" t="str">
+        <f t="shared" ref="AJ6" si="29">LEFT(TEXT(AJ5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="AK6" s="5" t="str">
+        <f t="shared" ref="AK6" si="30">LEFT(TEXT(AK5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="AL6" s="5" t="str">
+        <f t="shared" ref="AL6" si="31">LEFT(TEXT(AL5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="AM6" s="5" t="str">
+        <f t="shared" ref="AM6" si="32">LEFT(TEXT(AM5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="AN6" s="5" t="str">
+        <f t="shared" ref="AN6" si="33">LEFT(TEXT(AN5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AO6" s="5" t="str">
+        <f t="shared" ref="AO6" si="34">LEFT(TEXT(AO5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AP6" s="5" t="str">
+        <f>LEFT(TEXT(AP5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="AQ6" s="5" t="str">
+        <f t="shared" ref="AQ6" si="35">LEFT(TEXT(AQ5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="AR6" s="5" t="str">
+        <f t="shared" ref="AR6" si="36">LEFT(TEXT(AR5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="AS6" s="5" t="str">
+        <f t="shared" ref="AS6" si="37">LEFT(TEXT(AS5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="AT6" s="5" t="str">
+        <f t="shared" ref="AT6" si="38">LEFT(TEXT(AT5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="AU6" s="5" t="str">
+        <f t="shared" ref="AU6" si="39">LEFT(TEXT(AU5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AV6" s="5" t="str">
+        <f t="shared" ref="AV6" si="40">LEFT(TEXT(AV5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AW6" s="5" t="str">
+        <f t="shared" ref="AW6" si="41">LEFT(TEXT(AW5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="AX6" s="5" t="str">
+        <f t="shared" ref="AX6" si="42">LEFT(TEXT(AX5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="AY6" s="5" t="str">
+        <f t="shared" ref="AY6" si="43">LEFT(TEXT(AY5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="AZ6" s="5" t="str">
+        <f t="shared" ref="AZ6" si="44">LEFT(TEXT(AZ5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="BA6" s="5" t="str">
+        <f t="shared" ref="BA6" si="45">LEFT(TEXT(BA5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="BB6" s="5" t="str">
+        <f t="shared" ref="BB6" si="46">LEFT(TEXT(BB5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="BC6" s="5" t="str">
+        <f t="shared" ref="BC6" si="47">LEFT(TEXT(BC5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="BD6" s="5" t="str">
+        <f t="shared" ref="BD6" si="48">LEFT(TEXT(BD5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="BE6" s="5" t="str">
+        <f t="shared" ref="BE6" si="49">LEFT(TEXT(BE5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="BF6" s="5" t="str">
+        <f t="shared" ref="BF6" si="50">LEFT(TEXT(BF5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="BG6" s="5" t="str">
+        <f t="shared" ref="BG6" si="51">LEFT(TEXT(BG5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="BH6" s="5" t="str">
+        <f t="shared" ref="BH6" si="52">LEFT(TEXT(BH5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="BI6" s="5" t="str">
+        <f t="shared" ref="BI6" si="53">LEFT(TEXT(BI5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="BJ6" s="5" t="str">
+        <f t="shared" ref="BJ6" si="54">LEFT(TEXT(BJ5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="BK6" s="5" t="str">
+        <f t="shared" ref="BK6" si="55">LEFT(TEXT(BK5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="BL6" s="5" t="str">
+        <f t="shared" ref="BL6" si="56">LEFT(TEXT(BL5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="BM6" s="5" t="str">
+        <f t="shared" ref="BM6" si="57">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="BN6" s="5" t="str">
+        <f t="shared" ref="BN6" si="58">LEFT(TEXT(BN5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="BO6" s="5" t="str">
+        <f t="shared" ref="BO6" si="59">LEFT(TEXT(BO5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="BP6" s="5" t="str">
+        <f t="shared" ref="BP6" si="60">LEFT(TEXT(BP5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="BQ6" s="5" t="str">
+        <f t="shared" ref="BQ6" si="61">LEFT(TEXT(BQ5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="BR6" s="5" t="str">
+        <f t="shared" ref="BR6" si="62">LEFT(TEXT(BR5,"ddd"),1)</f>
+        <v>M</v>
+      </c>
+      <c r="BS6" s="5" t="str">
+        <f t="shared" ref="BS6" si="63">LEFT(TEXT(BS5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="BT6" s="5" t="str">
+        <f t="shared" ref="BT6" si="64">LEFT(TEXT(BT5,"ddd"),1)</f>
+        <v>W</v>
+      </c>
+      <c r="BU6" s="5" t="str">
+        <f t="shared" ref="BU6" si="65">LEFT(TEXT(BU5,"ddd"),1)</f>
+        <v>T</v>
+      </c>
+      <c r="BV6" s="5" t="str">
+        <f t="shared" ref="BV6" si="66">LEFT(TEXT(BV5,"ddd"),1)</f>
+        <v>F</v>
+      </c>
+      <c r="BW6" s="5" t="str">
+        <f t="shared" ref="BW6" si="67">LEFT(TEXT(BW5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+      <c r="BX6" s="5" t="str">
+        <f t="shared" ref="BX6" si="68">LEFT(TEXT(BX5,"ddd"),1)</f>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="7" spans="1:76">
+      <c r="A7" s="6" t="str">
+        <f>Sheet1!A2</f>
+        <v>Finish Information</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="19">
+        <f>Sheet1!E2</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <f>Sheet1!B2</f>
+        <v>44031</v>
+      </c>
+      <c r="E7" s="18">
+        <f>D7+Sheet1!C2</f>
+        <v>44033</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="BM7" s="7"/>
+      <c r="BN7" s="7"/>
+      <c r="BO7" s="7"/>
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+      <c r="BT7" s="7"/>
+      <c r="BU7" s="7"/>
+      <c r="BV7" s="7"/>
+      <c r="BW7" s="7"/>
+      <c r="BX7" s="7"/>
+    </row>
+    <row r="8" spans="1:76">
+      <c r="A8" s="6" t="str">
+        <f>Sheet1!A3</f>
+        <v>Okruh 1</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="19">
+        <f>Sheet1!E3</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <f>Sheet1!B3</f>
+        <v>44032</v>
+      </c>
+      <c r="E8" s="18">
+        <f>D8+Sheet1!C3</f>
+        <v>44042</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="7"/>
+      <c r="BU8" s="7"/>
+      <c r="BV8" s="7"/>
+      <c r="BW8" s="7"/>
+      <c r="BX8" s="7"/>
+    </row>
+    <row r="9" spans="1:76">
+      <c r="A9" s="6" t="str">
+        <f>Sheet1!A4</f>
+        <v>Okruh 2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="19">
+        <f>Sheet1!E4</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <f>Sheet1!B4</f>
+        <v>44042</v>
+      </c>
+      <c r="E9" s="18">
+        <f>D9+Sheet1!C4</f>
+        <v>44052</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="AX9" s="7"/>
+      <c r="AY9" s="7"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="7"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="7"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="7"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="7"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="7"/>
+      <c r="BU9" s="7"/>
+      <c r="BV9" s="7"/>
+      <c r="BW9" s="7"/>
+      <c r="BX9" s="7"/>
+    </row>
+    <row r="10" spans="1:76">
+      <c r="A10" s="6" t="str">
+        <f>Sheet1!A5</f>
+        <v>Okruh 3</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="19">
+        <f>Sheet1!E5</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f>Sheet1!B5</f>
+        <v>44052</v>
+      </c>
+      <c r="E10" s="18">
+        <f>D10+Sheet1!C5</f>
+        <v>44062</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="7"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="7"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="7"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="7"/>
+      <c r="BU10" s="7"/>
+      <c r="BV10" s="7"/>
+      <c r="BW10" s="7"/>
+      <c r="BX10" s="7"/>
+    </row>
+    <row r="11" spans="1:76">
+      <c r="A11" s="6" t="str">
+        <f>Sheet1!A6</f>
+        <v>Opakování</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="19">
+        <f>Sheet1!E6</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <f>Sheet1!B6</f>
+        <v>44062</v>
+      </c>
+      <c r="E11" s="18">
+        <f>D11+Sheet1!C6</f>
+        <v>44080</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="7"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="7"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="7"/>
+      <c r="BU11" s="7"/>
+      <c r="BV11" s="7"/>
+      <c r="BW11" s="7"/>
+      <c r="BX11" s="7"/>
+    </row>
+    <row r="12" spans="1:76">
+      <c r="A12" s="8" t="str">
+        <f>Sheet1!A7</f>
+        <v>Okruh 1, otázka 1 až 3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="19">
+        <f>Sheet1!E7</f>
+        <v>0.67</v>
+      </c>
+      <c r="D12" s="18">
+        <f>Sheet1!B7</f>
+        <v>44032</v>
+      </c>
+      <c r="E12" s="18">
+        <f>D12+Sheet1!C7</f>
+        <v>44034</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="7"/>
+      <c r="AH12" s="7"/>
+      <c r="AI12" s="7"/>
+      <c r="AJ12" s="7"/>
+      <c r="AK12" s="7"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="AX12" s="7"/>
+      <c r="AY12" s="7"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="7"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="7"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="7"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="7"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="7"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="7"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="7"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="7"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="7"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="7"/>
+    </row>
+    <row r="13" spans="1:76">
+      <c r="A13" s="8" t="str">
+        <f>Sheet1!A8</f>
+        <v>Okruh 1, otázka 4 až 6</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="19">
+        <f>Sheet1!E8</f>
+        <v>0.34</v>
+      </c>
+      <c r="D13" s="18">
+        <f>Sheet1!B8</f>
+        <v>44033</v>
+      </c>
+      <c r="E13" s="18">
+        <f>D13+Sheet1!C8</f>
+        <v>44035</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="7"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="7"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="7"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="7"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="7"/>
+    </row>
+    <row r="14" spans="1:76">
+      <c r="A14" s="8" t="str">
+        <f>Sheet1!A9</f>
+        <v>Okruh 1, otázka 7 až 9</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="19">
+        <f>Sheet1!E9</f>
+        <v>0.67</v>
+      </c>
+      <c r="D14" s="18">
+        <f>Sheet1!B9</f>
+        <v>44034</v>
+      </c>
+      <c r="E14" s="18">
+        <f>D14+Sheet1!C9</f>
+        <v>44036</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="7"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="7"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="7"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="7"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="7"/>
+      <c r="BU14" s="7"/>
+      <c r="BV14" s="7"/>
+      <c r="BW14" s="7"/>
+      <c r="BX14" s="7"/>
+    </row>
+    <row r="15" spans="1:76">
+      <c r="A15" s="8" t="str">
+        <f>Sheet1!A10</f>
+        <v>Okruh 1, otázka 10 až 12</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="19">
+        <f>Sheet1!E10</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <f>Sheet1!B10</f>
+        <v>44035</v>
+      </c>
+      <c r="E15" s="18">
+        <f>D15+Sheet1!C10</f>
+        <v>44037</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="7"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="7"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="7"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="7"/>
+      <c r="BK15" s="7"/>
+      <c r="BL15" s="7"/>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="7"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="7"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="7"/>
+      <c r="BU15" s="7"/>
+      <c r="BV15" s="7"/>
+      <c r="BW15" s="7"/>
+      <c r="BX15" s="7"/>
+    </row>
+    <row r="16" spans="1:76">
+      <c r="A16" s="8" t="str">
+        <f>Sheet1!A11</f>
+        <v>Okruh 1, otázka 13 až 15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="19">
+        <f>Sheet1!E11</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="18">
+        <f>Sheet1!B11</f>
+        <v>44036</v>
+      </c>
+      <c r="E16" s="18">
+        <f>D16+Sheet1!C11</f>
+        <v>44038</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="AX16" s="7"/>
+      <c r="AY16" s="7"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="7"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="7"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="7"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="7"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="7"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="7"/>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="7"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="7"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
+      <c r="BU16" s="7"/>
+      <c r="BV16" s="7"/>
+      <c r="BW16" s="7"/>
+      <c r="BX16" s="7"/>
+    </row>
+    <row r="17" spans="1:76">
+      <c r="A17" s="8" t="str">
+        <f>Sheet1!A12</f>
+        <v>Okruh 1, otázka 16 až 18</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="19">
+        <f>Sheet1!E12</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="18">
+        <f>Sheet1!B12</f>
+        <v>44037</v>
+      </c>
+      <c r="E17" s="18">
+        <f>D17+Sheet1!C12</f>
+        <v>44039</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="AX17" s="7"/>
+      <c r="AY17" s="7"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="7"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="7"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="7"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="7"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="7"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="7"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="7"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="7"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="7"/>
+    </row>
+    <row r="18" spans="1:76">
+      <c r="A18" s="8" t="str">
+        <f>Sheet1!A13</f>
+        <v>Okruh 1, otázka 19 až 21</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="19">
+        <f>Sheet1!E13</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <f>Sheet1!B13</f>
+        <v>44038</v>
+      </c>
+      <c r="E18" s="18">
+        <f>D18+Sheet1!C13</f>
+        <v>44040</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="7"/>
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="AX18" s="7"/>
+      <c r="AY18" s="7"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="7"/>
+      <c r="BC18" s="7"/>
+      <c r="BD18" s="7"/>
+      <c r="BE18" s="7"/>
+      <c r="BF18" s="7"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="7"/>
+      <c r="BJ18" s="7"/>
+      <c r="BK18" s="7"/>
+      <c r="BL18" s="7"/>
+      <c r="BM18" s="7"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="7"/>
+      <c r="BQ18" s="7"/>
+      <c r="BR18" s="7"/>
+      <c r="BS18" s="7"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="7"/>
+      <c r="BV18" s="7"/>
+      <c r="BW18" s="7"/>
+      <c r="BX18" s="7"/>
+    </row>
+    <row r="19" spans="1:76">
+      <c r="A19" s="8" t="str">
+        <f>Sheet1!A14</f>
+        <v>Okruh 1, otázka 22 až 24</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="19">
+        <f>Sheet1!E14</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="18">
+        <f>Sheet1!B14</f>
+        <v>44039</v>
+      </c>
+      <c r="E19" s="18">
+        <f>D19+Sheet1!C14</f>
+        <v>44041</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="7"/>
+      <c r="AY19" s="7"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="7"/>
+      <c r="BC19" s="7"/>
+      <c r="BD19" s="7"/>
+      <c r="BE19" s="7"/>
+      <c r="BF19" s="7"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="7"/>
+      <c r="BJ19" s="7"/>
+      <c r="BK19" s="7"/>
+      <c r="BL19" s="7"/>
+      <c r="BM19" s="7"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="7"/>
+      <c r="BQ19" s="7"/>
+      <c r="BR19" s="7"/>
+      <c r="BS19" s="7"/>
+      <c r="BT19" s="7"/>
+      <c r="BU19" s="7"/>
+      <c r="BV19" s="7"/>
+      <c r="BW19" s="7"/>
+      <c r="BX19" s="7"/>
+    </row>
+    <row r="20" spans="1:76">
+      <c r="A20" s="8" t="str">
+        <f>Sheet1!A15</f>
+        <v>Okruh 1, otázka 25 až 27</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="19">
+        <f>Sheet1!E15</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="18">
+        <f>Sheet1!B15</f>
+        <v>44040</v>
+      </c>
+      <c r="E20" s="18">
+        <f>D20+Sheet1!C15</f>
+        <v>44042</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="7"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="7"/>
+      <c r="BJ20" s="7"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="7"/>
+      <c r="BQ20" s="7"/>
+      <c r="BR20" s="7"/>
+      <c r="BS20" s="7"/>
+      <c r="BT20" s="7"/>
+      <c r="BU20" s="7"/>
+      <c r="BV20" s="7"/>
+      <c r="BW20" s="7"/>
+      <c r="BX20" s="7"/>
+    </row>
+    <row r="21" spans="1:76">
+      <c r="A21" s="8" t="str">
+        <f>Sheet1!A16</f>
+        <v>Okruh 1, otázka 28 až 30</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="19">
+        <f>Sheet1!E16</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="18">
+        <f>Sheet1!B16</f>
+        <v>44041</v>
+      </c>
+      <c r="E21" s="18">
+        <f>D21+Sheet1!C16</f>
+        <v>44043</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
+      <c r="BU21" s="7"/>
+      <c r="BV21" s="7"/>
+      <c r="BW21" s="7"/>
+      <c r="BX21" s="7"/>
+    </row>
+    <row r="22" spans="1:76">
+      <c r="A22" s="8" t="str">
+        <f>Sheet1!A17</f>
+        <v>Okruh 2, otázka 1 až 3</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="19">
+        <f>Sheet1!E17</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <f>Sheet1!B17</f>
+        <v>44042</v>
+      </c>
+      <c r="E22" s="18">
+        <f>D22+Sheet1!C17</f>
+        <v>44044</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="7"/>
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+      <c r="BU22" s="7"/>
+      <c r="BV22" s="7"/>
+      <c r="BW22" s="7"/>
+      <c r="BX22" s="7"/>
+    </row>
+    <row r="23" spans="1:76">
+      <c r="A23" s="8" t="str">
+        <f>Sheet1!A18</f>
+        <v>Okruh 2, otázka 4 až 6</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="19">
+        <f>Sheet1!E18</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="18">
+        <f>Sheet1!B18</f>
+        <v>44043</v>
+      </c>
+      <c r="E23" s="18">
+        <f>D23+Sheet1!C18</f>
+        <v>44045</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="7"/>
+      <c r="BJ23" s="7"/>
+      <c r="BK23" s="7"/>
+      <c r="BL23" s="7"/>
+      <c r="BM23" s="7"/>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7"/>
+      <c r="BR23" s="7"/>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
+      <c r="BU23" s="7"/>
+      <c r="BV23" s="7"/>
+      <c r="BW23" s="7"/>
+      <c r="BX23" s="7"/>
+    </row>
+    <row r="24" spans="1:76">
+      <c r="A24" s="8" t="str">
+        <f>Sheet1!A19</f>
+        <v>Okruh 2, otázka 7 až 9</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="19">
+        <f>Sheet1!E19</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="18">
+        <f>Sheet1!B19</f>
+        <v>44044</v>
+      </c>
+      <c r="E24" s="18">
+        <f>D24+Sheet1!C19</f>
+        <v>44046</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="7"/>
+      <c r="AI24" s="7"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+      <c r="AV24" s="7"/>
+      <c r="AW24" s="7"/>
+      <c r="AX24" s="7"/>
+      <c r="AY24" s="7"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="7"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="7"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7"/>
+      <c r="BL24" s="7"/>
+      <c r="BM24" s="7"/>
+      <c r="BN24" s="7"/>
+      <c r="BO24" s="7"/>
+      <c r="BP24" s="7"/>
+      <c r="BQ24" s="7"/>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
+      <c r="BU24" s="7"/>
+      <c r="BV24" s="7"/>
+      <c r="BW24" s="7"/>
+      <c r="BX24" s="7"/>
+    </row>
+    <row r="25" spans="1:76">
+      <c r="A25" s="8" t="str">
+        <f>Sheet1!A20</f>
+        <v>Okruh 2, otázka 10 až 12</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="19">
+        <f>Sheet1!E20</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="18">
+        <f>Sheet1!B20</f>
+        <v>44045</v>
+      </c>
+      <c r="E25" s="18">
+        <f>D25+Sheet1!C20</f>
+        <v>44047</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
+      <c r="AX25" s="7"/>
+      <c r="AY25" s="7"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="7"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="7"/>
+      <c r="BJ25" s="7"/>
+      <c r="BK25" s="7"/>
+      <c r="BL25" s="7"/>
+      <c r="BM25" s="7"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
+      <c r="BP25" s="7"/>
+      <c r="BQ25" s="7"/>
+      <c r="BR25" s="7"/>
+      <c r="BS25" s="7"/>
+      <c r="BT25" s="7"/>
+      <c r="BU25" s="7"/>
+      <c r="BV25" s="7"/>
+      <c r="BW25" s="7"/>
+      <c r="BX25" s="7"/>
+    </row>
+    <row r="26" spans="1:76">
+      <c r="A26" s="8" t="str">
+        <f>Sheet1!A21</f>
+        <v>Okruh 2, otázka 13 až 15</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="19">
+        <f>Sheet1!E21</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <f>Sheet1!B21</f>
+        <v>44046</v>
+      </c>
+      <c r="E26" s="18">
+        <f>D26+Sheet1!C21</f>
+        <v>44048</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="7"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="7"/>
+      <c r="BC26" s="7"/>
+      <c r="BD26" s="7"/>
+      <c r="BE26" s="7"/>
+      <c r="BF26" s="7"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="7"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
+      <c r="BL26" s="7"/>
+      <c r="BM26" s="7"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="7"/>
+      <c r="BQ26" s="7"/>
+      <c r="BR26" s="7"/>
+      <c r="BS26" s="7"/>
+      <c r="BT26" s="7"/>
+      <c r="BU26" s="7"/>
+      <c r="BV26" s="7"/>
+      <c r="BW26" s="7"/>
+      <c r="BX26" s="7"/>
+    </row>
+    <row r="27" spans="1:76">
+      <c r="A27" s="8" t="str">
+        <f>Sheet1!A22</f>
+        <v>Okruh 2, otázka 16 až 18</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="19">
+        <f>Sheet1!E22</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="18">
+        <f>Sheet1!B22</f>
+        <v>44047</v>
+      </c>
+      <c r="E27" s="18">
+        <f>D27+Sheet1!C22</f>
+        <v>44049</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+      <c r="AW27" s="7"/>
+      <c r="AX27" s="7"/>
+      <c r="AY27" s="7"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="7"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="7"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="7"/>
+      <c r="BN27" s="7"/>
+      <c r="BO27" s="7"/>
+      <c r="BP27" s="7"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+      <c r="BT27" s="7"/>
+      <c r="BU27" s="7"/>
+      <c r="BV27" s="7"/>
+      <c r="BW27" s="7"/>
+      <c r="BX27" s="7"/>
+    </row>
+    <row r="28" spans="1:76">
+      <c r="A28" s="8" t="str">
+        <f>Sheet1!A23</f>
+        <v>Okruh 2, otázka 19 až 21</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="19">
+        <f>Sheet1!E23</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <f>Sheet1!B23</f>
+        <v>44048</v>
+      </c>
+      <c r="E28" s="18">
+        <f>D28+Sheet1!C23</f>
+        <v>44050</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="7"/>
+      <c r="BC28" s="7"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="7"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="7"/>
+      <c r="BJ28" s="7"/>
+      <c r="BK28" s="7"/>
+      <c r="BL28" s="7"/>
+      <c r="BM28" s="7"/>
+      <c r="BN28" s="7"/>
+      <c r="BO28" s="7"/>
+      <c r="BP28" s="7"/>
+      <c r="BQ28" s="7"/>
+      <c r="BR28" s="7"/>
+      <c r="BS28" s="7"/>
+      <c r="BT28" s="7"/>
+      <c r="BU28" s="7"/>
+      <c r="BV28" s="7"/>
+      <c r="BW28" s="7"/>
+      <c r="BX28" s="7"/>
+    </row>
+    <row r="29" spans="1:76">
+      <c r="A29" s="8" t="str">
+        <f>Sheet1!A24</f>
+        <v>Okruh 2, otázka 22 až 24</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="19">
+        <f>Sheet1!E24</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="18">
+        <f>Sheet1!B24</f>
+        <v>44049</v>
+      </c>
+      <c r="E29" s="18">
+        <f>D29+Sheet1!C24</f>
+        <v>44051</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="7"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="7"/>
+      <c r="BC29" s="7"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="7"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="7"/>
+      <c r="BL29" s="7"/>
+      <c r="BM29" s="7"/>
+      <c r="BN29" s="7"/>
+      <c r="BO29" s="7"/>
+      <c r="BP29" s="7"/>
+      <c r="BQ29" s="7"/>
+      <c r="BR29" s="7"/>
+      <c r="BS29" s="7"/>
+      <c r="BT29" s="7"/>
+      <c r="BU29" s="7"/>
+      <c r="BV29" s="7"/>
+      <c r="BW29" s="7"/>
+      <c r="BX29" s="7"/>
+    </row>
+    <row r="30" spans="1:76">
+      <c r="A30" s="8" t="str">
+        <f>Sheet1!A25</f>
+        <v>Okruh 2, otázka 25 až 27</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="19">
+        <f>Sheet1!E25</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="18">
+        <f>Sheet1!B25</f>
+        <v>44050</v>
+      </c>
+      <c r="E30" s="18">
+        <f>D30+Sheet1!C25</f>
+        <v>44052</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+      <c r="AW30" s="7"/>
+      <c r="AX30" s="7"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="7"/>
+      <c r="BC30" s="7"/>
+      <c r="BD30" s="7"/>
+      <c r="BE30" s="7"/>
+      <c r="BF30" s="7"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="7"/>
+      <c r="BJ30" s="7"/>
+      <c r="BK30" s="7"/>
+      <c r="BL30" s="7"/>
+      <c r="BM30" s="7"/>
+      <c r="BN30" s="7"/>
+      <c r="BO30" s="7"/>
+      <c r="BP30" s="7"/>
+      <c r="BQ30" s="7"/>
+      <c r="BR30" s="7"/>
+      <c r="BS30" s="7"/>
+      <c r="BT30" s="7"/>
+      <c r="BU30" s="7"/>
+      <c r="BV30" s="7"/>
+      <c r="BW30" s="7"/>
+      <c r="BX30" s="7"/>
+    </row>
+    <row r="31" spans="1:76">
+      <c r="A31" s="8" t="str">
+        <f>Sheet1!A26</f>
+        <v>Okruh 2, otázka 28 až 30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="19">
+        <f>Sheet1!E26</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="18">
+        <f>Sheet1!B26</f>
+        <v>44051</v>
+      </c>
+      <c r="E31" s="18">
+        <f>D31+Sheet1!C26</f>
+        <v>44053</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+      <c r="AW31" s="7"/>
+      <c r="AX31" s="7"/>
+      <c r="AY31" s="7"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="7"/>
+      <c r="BC31" s="7"/>
+      <c r="BD31" s="7"/>
+      <c r="BE31" s="7"/>
+      <c r="BF31" s="7"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="7"/>
+      <c r="BI31" s="7"/>
+      <c r="BJ31" s="7"/>
+      <c r="BK31" s="7"/>
+      <c r="BL31" s="7"/>
+      <c r="BM31" s="7"/>
+      <c r="BN31" s="7"/>
+      <c r="BO31" s="7"/>
+      <c r="BP31" s="7"/>
+      <c r="BQ31" s="7"/>
+      <c r="BR31" s="7"/>
+      <c r="BS31" s="7"/>
+      <c r="BT31" s="7"/>
+      <c r="BU31" s="7"/>
+      <c r="BV31" s="7"/>
+      <c r="BW31" s="7"/>
+      <c r="BX31" s="7"/>
+    </row>
+    <row r="32" spans="1:76">
+      <c r="A32" s="8" t="str">
+        <f>Sheet1!A27</f>
+        <v>Okruh 3, otázka 1 až 3</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="19">
+        <f>Sheet1!E27</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="18">
+        <f>Sheet1!B27</f>
+        <v>44052</v>
+      </c>
+      <c r="E32" s="18">
+        <f>D32+Sheet1!C27</f>
+        <v>44054</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+      <c r="BD32" s="7"/>
+      <c r="BE32" s="7"/>
+      <c r="BF32" s="7"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="7"/>
+      <c r="BI32" s="7"/>
+      <c r="BJ32" s="7"/>
+      <c r="BK32" s="7"/>
+      <c r="BL32" s="7"/>
+      <c r="BM32" s="7"/>
+      <c r="BN32" s="7"/>
+      <c r="BO32" s="7"/>
+      <c r="BP32" s="7"/>
+      <c r="BQ32" s="7"/>
+      <c r="BR32" s="7"/>
+      <c r="BS32" s="7"/>
+      <c r="BT32" s="7"/>
+      <c r="BU32" s="7"/>
+      <c r="BV32" s="7"/>
+      <c r="BW32" s="7"/>
+      <c r="BX32" s="7"/>
+    </row>
+    <row r="33" spans="1:76">
+      <c r="A33" s="8" t="str">
+        <f>Sheet1!A28</f>
+        <v>Okruh 3, otázka 4 až 6</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="19">
+        <f>Sheet1!E28</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <f>Sheet1!B28</f>
+        <v>44053</v>
+      </c>
+      <c r="E33" s="18">
+        <f>D33+Sheet1!C28</f>
+        <v>44055</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+      <c r="AW33" s="7"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
+      <c r="BE33" s="7"/>
+      <c r="BF33" s="7"/>
+      <c r="BG33" s="7"/>
+      <c r="BH33" s="7"/>
+      <c r="BI33" s="7"/>
+      <c r="BJ33" s="7"/>
+      <c r="BK33" s="7"/>
+      <c r="BL33" s="7"/>
+      <c r="BM33" s="7"/>
+      <c r="BN33" s="7"/>
+      <c r="BO33" s="7"/>
+      <c r="BP33" s="7"/>
+      <c r="BQ33" s="7"/>
+      <c r="BR33" s="7"/>
+      <c r="BS33" s="7"/>
+      <c r="BT33" s="7"/>
+      <c r="BU33" s="7"/>
+      <c r="BV33" s="7"/>
+      <c r="BW33" s="7"/>
+      <c r="BX33" s="7"/>
+    </row>
+    <row r="34" spans="1:76">
+      <c r="A34" s="8" t="str">
+        <f>Sheet1!A29</f>
+        <v>Okruh 3, otázka 7 až 9</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="19">
+        <f>Sheet1!E29</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <f>Sheet1!B29</f>
+        <v>44054</v>
+      </c>
+      <c r="E34" s="18">
+        <f>D34+Sheet1!C29</f>
+        <v>44056</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+      <c r="AW34" s="7"/>
+      <c r="AX34" s="7"/>
+      <c r="AY34" s="7"/>
+      <c r="AZ34" s="7"/>
+      <c r="BA34" s="7"/>
+      <c r="BB34" s="7"/>
+      <c r="BC34" s="7"/>
+      <c r="BD34" s="7"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
+      <c r="BJ34" s="7"/>
+      <c r="BK34" s="7"/>
+      <c r="BL34" s="7"/>
+      <c r="BM34" s="7"/>
+      <c r="BN34" s="7"/>
+      <c r="BO34" s="7"/>
+      <c r="BP34" s="7"/>
+      <c r="BQ34" s="7"/>
+      <c r="BR34" s="7"/>
+      <c r="BS34" s="7"/>
+      <c r="BT34" s="7"/>
+      <c r="BU34" s="7"/>
+      <c r="BV34" s="7"/>
+      <c r="BW34" s="7"/>
+      <c r="BX34" s="7"/>
+    </row>
+    <row r="35" spans="1:76">
+      <c r="A35" s="8" t="str">
+        <f>Sheet1!A30</f>
+        <v>Okruh 3, otázka 10 až 12</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="19">
+        <f>Sheet1!E30</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="18">
+        <f>Sheet1!B30</f>
+        <v>44055</v>
+      </c>
+      <c r="E35" s="18">
+        <f>D35+Sheet1!C30</f>
+        <v>44057</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+      <c r="AW35" s="7"/>
+      <c r="AX35" s="7"/>
+      <c r="AY35" s="7"/>
+      <c r="AZ35" s="7"/>
+      <c r="BA35" s="7"/>
+      <c r="BB35" s="7"/>
+      <c r="BC35" s="7"/>
+      <c r="BD35" s="7"/>
+      <c r="BE35" s="7"/>
+      <c r="BF35" s="7"/>
+      <c r="BG35" s="7"/>
+      <c r="BH35" s="7"/>
+      <c r="BI35" s="7"/>
+      <c r="BJ35" s="7"/>
+      <c r="BK35" s="7"/>
+      <c r="BL35" s="7"/>
+      <c r="BM35" s="7"/>
+      <c r="BN35" s="7"/>
+      <c r="BO35" s="7"/>
+      <c r="BP35" s="7"/>
+      <c r="BQ35" s="7"/>
+      <c r="BR35" s="7"/>
+      <c r="BS35" s="7"/>
+      <c r="BT35" s="7"/>
+      <c r="BU35" s="7"/>
+      <c r="BV35" s="7"/>
+      <c r="BW35" s="7"/>
+      <c r="BX35" s="7"/>
+    </row>
+    <row r="36" spans="1:76">
+      <c r="A36" s="8" t="str">
+        <f>Sheet1!A31</f>
+        <v>Okruh 3, otázka 13 až 15</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="19">
+        <f>Sheet1!E31</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="18">
+        <f>Sheet1!B31</f>
+        <v>44056</v>
+      </c>
+      <c r="E36" s="18">
+        <f>D36+Sheet1!C31</f>
+        <v>44058</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+      <c r="AW36" s="7"/>
+      <c r="AX36" s="7"/>
+      <c r="AY36" s="7"/>
+      <c r="AZ36" s="7"/>
+      <c r="BA36" s="7"/>
+      <c r="BB36" s="7"/>
+      <c r="BC36" s="7"/>
+      <c r="BD36" s="7"/>
+      <c r="BE36" s="7"/>
+      <c r="BF36" s="7"/>
+      <c r="BG36" s="7"/>
+      <c r="BH36" s="7"/>
+      <c r="BI36" s="7"/>
+      <c r="BJ36" s="7"/>
+      <c r="BK36" s="7"/>
+      <c r="BL36" s="7"/>
+      <c r="BM36" s="7"/>
+      <c r="BN36" s="7"/>
+      <c r="BO36" s="7"/>
+      <c r="BP36" s="7"/>
+      <c r="BQ36" s="7"/>
+      <c r="BR36" s="7"/>
+      <c r="BS36" s="7"/>
+      <c r="BT36" s="7"/>
+      <c r="BU36" s="7"/>
+      <c r="BV36" s="7"/>
+      <c r="BW36" s="7"/>
+      <c r="BX36" s="7"/>
+    </row>
+    <row r="37" spans="1:76">
+      <c r="A37" s="8" t="str">
+        <f>Sheet1!A32</f>
+        <v>Okruh 3, otázka 16 až 18</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="19">
+        <f>Sheet1!E32</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <f>Sheet1!B32</f>
+        <v>44057</v>
+      </c>
+      <c r="E37" s="18">
+        <f>D37+Sheet1!C32</f>
+        <v>44059</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+      <c r="AW37" s="7"/>
+      <c r="AX37" s="7"/>
+      <c r="AY37" s="7"/>
+      <c r="AZ37" s="7"/>
+      <c r="BA37" s="7"/>
+      <c r="BB37" s="7"/>
+      <c r="BC37" s="7"/>
+      <c r="BD37" s="7"/>
+      <c r="BE37" s="7"/>
+      <c r="BF37" s="7"/>
+      <c r="BG37" s="7"/>
+      <c r="BH37" s="7"/>
+      <c r="BI37" s="7"/>
+      <c r="BJ37" s="7"/>
+      <c r="BK37" s="7"/>
+      <c r="BL37" s="7"/>
+      <c r="BM37" s="7"/>
+      <c r="BN37" s="7"/>
+      <c r="BO37" s="7"/>
+      <c r="BP37" s="7"/>
+      <c r="BQ37" s="7"/>
+      <c r="BR37" s="7"/>
+      <c r="BS37" s="7"/>
+      <c r="BT37" s="7"/>
+      <c r="BU37" s="7"/>
+      <c r="BV37" s="7"/>
+      <c r="BW37" s="7"/>
+      <c r="BX37" s="7"/>
+    </row>
+    <row r="38" spans="1:76">
+      <c r="A38" s="8" t="str">
+        <f>Sheet1!A33</f>
+        <v>Okruh 3, otázka 19 až 21</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="19">
+        <f>Sheet1!E33</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="18">
+        <f>Sheet1!B33</f>
+        <v>44058</v>
+      </c>
+      <c r="E38" s="18">
+        <f>D38+Sheet1!C33</f>
+        <v>44060</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+      <c r="AW38" s="7"/>
+      <c r="AX38" s="7"/>
+      <c r="AY38" s="7"/>
+      <c r="AZ38" s="7"/>
+      <c r="BA38" s="7"/>
+      <c r="BB38" s="7"/>
+      <c r="BC38" s="7"/>
+      <c r="BD38" s="7"/>
+      <c r="BE38" s="7"/>
+      <c r="BF38" s="7"/>
+      <c r="BG38" s="7"/>
+      <c r="BH38" s="7"/>
+      <c r="BI38" s="7"/>
+      <c r="BJ38" s="7"/>
+      <c r="BK38" s="7"/>
+      <c r="BL38" s="7"/>
+      <c r="BM38" s="7"/>
+      <c r="BN38" s="7"/>
+      <c r="BO38" s="7"/>
+      <c r="BP38" s="7"/>
+      <c r="BQ38" s="7"/>
+      <c r="BR38" s="7"/>
+      <c r="BS38" s="7"/>
+      <c r="BT38" s="7"/>
+      <c r="BU38" s="7"/>
+      <c r="BV38" s="7"/>
+      <c r="BW38" s="7"/>
+      <c r="BX38" s="7"/>
+    </row>
+    <row r="39" spans="1:76">
+      <c r="A39" s="8" t="str">
+        <f>Sheet1!A34</f>
+        <v>Okruh 3, otázka 22 až 24</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="19">
+        <f>Sheet1!E34</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="18">
+        <f>Sheet1!B34</f>
+        <v>44059</v>
+      </c>
+      <c r="E39" s="18">
+        <f>D39+Sheet1!C34</f>
+        <v>44061</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+      <c r="AW39" s="7"/>
+      <c r="AX39" s="7"/>
+      <c r="AY39" s="7"/>
+      <c r="AZ39" s="7"/>
+      <c r="BA39" s="7"/>
+      <c r="BB39" s="7"/>
+      <c r="BC39" s="7"/>
+      <c r="BD39" s="7"/>
+      <c r="BE39" s="7"/>
+      <c r="BF39" s="7"/>
+      <c r="BG39" s="7"/>
+      <c r="BH39" s="7"/>
+      <c r="BI39" s="7"/>
+      <c r="BJ39" s="7"/>
+      <c r="BK39" s="7"/>
+      <c r="BL39" s="7"/>
+      <c r="BM39" s="7"/>
+      <c r="BN39" s="7"/>
+      <c r="BO39" s="7"/>
+      <c r="BP39" s="7"/>
+      <c r="BQ39" s="7"/>
+      <c r="BR39" s="7"/>
+      <c r="BS39" s="7"/>
+      <c r="BT39" s="7"/>
+      <c r="BU39" s="7"/>
+      <c r="BV39" s="7"/>
+      <c r="BW39" s="7"/>
+      <c r="BX39" s="7"/>
+    </row>
+    <row r="40" spans="1:76">
+      <c r="A40" s="8" t="str">
+        <f>Sheet1!A35</f>
+        <v>Okruh 3, otázka 25 až 27</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="19">
+        <f>Sheet1!E35</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="18">
+        <f>Sheet1!B35</f>
+        <v>44060</v>
+      </c>
+      <c r="E40" s="18">
+        <f>D40+Sheet1!C35</f>
+        <v>44062</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+      <c r="AW40" s="7"/>
+      <c r="AX40" s="7"/>
+      <c r="AY40" s="7"/>
+      <c r="AZ40" s="7"/>
+      <c r="BA40" s="7"/>
+      <c r="BB40" s="7"/>
+      <c r="BC40" s="7"/>
+      <c r="BD40" s="7"/>
+      <c r="BE40" s="7"/>
+      <c r="BF40" s="7"/>
+      <c r="BG40" s="7"/>
+      <c r="BH40" s="7"/>
+      <c r="BI40" s="7"/>
+      <c r="BJ40" s="7"/>
+      <c r="BK40" s="7"/>
+      <c r="BL40" s="7"/>
+      <c r="BM40" s="7"/>
+      <c r="BN40" s="7"/>
+      <c r="BO40" s="7"/>
+      <c r="BP40" s="7"/>
+      <c r="BQ40" s="7"/>
+      <c r="BR40" s="7"/>
+      <c r="BS40" s="7"/>
+      <c r="BT40" s="7"/>
+      <c r="BU40" s="7"/>
+      <c r="BV40" s="7"/>
+      <c r="BW40" s="7"/>
+      <c r="BX40" s="7"/>
+    </row>
+    <row r="41" spans="1:76">
+      <c r="A41" s="8" t="str">
+        <f>Sheet1!A36</f>
+        <v>Okruh 3, otázka 28 až 30</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="19">
+        <f>Sheet1!E36</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="18">
+        <f>Sheet1!B36</f>
+        <v>44061</v>
+      </c>
+      <c r="E41" s="18">
+        <f>D41+Sheet1!C36</f>
+        <v>44063</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+      <c r="AW41" s="7"/>
+      <c r="AX41" s="7"/>
+      <c r="AY41" s="7"/>
+      <c r="AZ41" s="7"/>
+      <c r="BA41" s="7"/>
+      <c r="BB41" s="7"/>
+      <c r="BC41" s="7"/>
+      <c r="BD41" s="7"/>
+      <c r="BE41" s="7"/>
+      <c r="BF41" s="7"/>
+      <c r="BG41" s="7"/>
+      <c r="BH41" s="7"/>
+      <c r="BI41" s="7"/>
+      <c r="BJ41" s="7"/>
+      <c r="BK41" s="7"/>
+      <c r="BL41" s="7"/>
+      <c r="BM41" s="7"/>
+      <c r="BN41" s="7"/>
+      <c r="BO41" s="7"/>
+      <c r="BP41" s="7"/>
+      <c r="BQ41" s="7"/>
+      <c r="BR41" s="7"/>
+      <c r="BS41" s="7"/>
+      <c r="BT41" s="7"/>
+      <c r="BU41" s="7"/>
+      <c r="BV41" s="7"/>
+      <c r="BW41" s="7"/>
+      <c r="BX41" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="N4:T4"/>
+    <mergeCell ref="U4:AA4"/>
+    <mergeCell ref="AB4:AH4"/>
+    <mergeCell ref="AI4:AO4"/>
+    <mergeCell ref="AP4:AV4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G7:BX41">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(G$5&gt;=$D7,G$5&lt;=$E7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>1*AND(G$5&gt;=task_start,G$5&lt;=task_start+(task_progress*(task_end-task_start+1))-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:BX41">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>G$5=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:C41">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8AEB2ACE-5F91-FF49-8C0F-D35515996B44}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId3" name="Scroll Bar 3">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>812800</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>177800</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8AEB2ACE-5F91-FF49-8C0F-D35515996B44}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C7:C41</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Státní závěrečné zkoušky/Otázky/Gantt.xlsx
+++ b/Státní závěrečné zkoušky/Otázky/Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/Bakalářská práce/Státní závěrečné zkoušky/Otázky/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{73A8C43E-3182-8447-A6C7-CC7D48974769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{739641E2-B384-C941-8876-75D552BACAB8}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{73A8C43E-3182-8447-A6C7-CC7D48974769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF2B5A9E-A096-C64E-A708-B57714726BDA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" activeTab="1" xr2:uid="{196274B7-E9B6-054A-946B-71D9237123A5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" xr2:uid="{196274B7-E9B6-054A-946B-71D9237123A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -360,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -430,6 +430,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475068D2-3FCF-C848-8C20-861F3B0DA572}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -890,6 +891,9 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="25">
+        <v>0.16650000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -1376,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA571D2-B30F-6044-AFAE-E5DB9529F9D8}">
   <dimension ref="A1:BX41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2218,7 +2222,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="19">
         <f>Sheet1!E3</f>
-        <v>0</v>
+        <v>0.16650000000000001</v>
       </c>
       <c r="D8" s="18">
         <f>Sheet1!B3</f>

--- a/Státní závěrečné zkoušky/Otázky/Gantt.xlsx
+++ b/Státní závěrečné zkoušky/Otázky/Gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ef484bc4f40e753/Bakalářská práce/Státní závěrečné zkoušky/Otázky/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{73A8C43E-3182-8447-A6C7-CC7D48974769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF2B5A9E-A096-C64E-A708-B57714726BDA}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{73A8C43E-3182-8447-A6C7-CC7D48974769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88A52E28-5696-B24D-89C1-7ADA894615BE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" xr2:uid="{196274B7-E9B6-054A-946B-71D9237123A5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" activeTab="1" xr2:uid="{196274B7-E9B6-054A-946B-71D9237123A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Právo v Obchodních vztazích</t>
+  </si>
+  <si>
+    <t>Momentální stav</t>
+  </si>
+  <si>
+    <t>Maximální stav</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -421,6 +427,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,7 +437,7 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475068D2-3FCF-C848-8C20-861F3B0DA572}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -842,6 +849,8 @@
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -860,6 +869,12 @@
       <c r="E1" t="s">
         <v>41</v>
       </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -891,8 +906,16 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25">
-        <v>0.16650000000000001</v>
+      <c r="E3" s="22">
+        <f>F3/G3</f>
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="F3" s="26">
+        <f>SUM(E7:E16)</f>
+        <v>2.35</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -908,6 +931,17 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4:E5" si="0">F4/G4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <f>SUM(E17:E26)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -922,6 +956,17 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <f>SUM(E27:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
@@ -1002,6 +1047,9 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="E10" s="21">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
@@ -1087,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1100,8 +1148,9 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1171,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1213,7 +1262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1227,7 +1276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1241,7 +1290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1255,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1269,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1283,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1297,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1380,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA571D2-B30F-6044-AFAE-E5DB9529F9D8}">
   <dimension ref="A1:BX41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1443,106 +1492,106 @@
       <c r="D4" s="14">
         <v>2</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="23">
         <f>G5</f>
         <v>44025</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="22">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="23">
         <f t="shared" ref="N4" si="0">N5</f>
         <v>44032</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="22">
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="23">
         <f t="shared" ref="U4" si="1">U5</f>
         <v>44039</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="22">
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="23">
         <f t="shared" ref="AB4" si="2">AB5</f>
         <v>44046</v>
       </c>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="22">
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="25"/>
+      <c r="AI4" s="23">
         <f t="shared" ref="AI4" si="3">AI5</f>
         <v>44053</v>
       </c>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="22">
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="23">
         <f>AP5</f>
         <v>44060</v>
       </c>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="22">
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="23">
         <f t="shared" ref="AW4" si="4">AW5</f>
         <v>44067</v>
       </c>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="22">
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="23">
         <f t="shared" ref="BD4" si="5">BD5</f>
         <v>44074</v>
       </c>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="23"/>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="23"/>
-      <c r="BJ4" s="24"/>
-      <c r="BK4" s="22">
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="24"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="23">
         <f t="shared" ref="BK4" si="6">BK5</f>
         <v>44081</v>
       </c>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="23"/>
-      <c r="BN4" s="23"/>
-      <c r="BO4" s="23"/>
-      <c r="BP4" s="23"/>
-      <c r="BQ4" s="24"/>
-      <c r="BR4" s="22">
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="24"/>
+      <c r="BN4" s="24"/>
+      <c r="BO4" s="24"/>
+      <c r="BP4" s="24"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="23">
         <f t="shared" ref="BR4" si="7">BR5</f>
         <v>44088</v>
       </c>
-      <c r="BS4" s="23"/>
-      <c r="BT4" s="23"/>
-      <c r="BU4" s="23"/>
-      <c r="BV4" s="23"/>
-      <c r="BW4" s="23"/>
-      <c r="BX4" s="24"/>
+      <c r="BS4" s="24"/>
+      <c r="BT4" s="24"/>
+      <c r="BU4" s="24"/>
+      <c r="BV4" s="24"/>
+      <c r="BW4" s="24"/>
+      <c r="BX4" s="25"/>
     </row>
     <row r="5" spans="1:76">
       <c r="G5" s="10">
@@ -2222,7 +2271,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="19">
         <f>Sheet1!E3</f>
-        <v>0.16650000000000001</v>
+        <v>0.23500000000000001</v>
       </c>
       <c r="D8" s="18">
         <f>Sheet1!B3</f>
@@ -2852,7 +2901,7 @@
       <c r="B15" s="6"/>
       <c r="C15" s="19">
         <f>Sheet1!E10</f>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="D15" s="18">
         <f>Sheet1!B10</f>
